--- a/Producto Final/COMECA - MCU Board/Project Outputs for COMECA - MCU Board/BOM - JLC.xlsx
+++ b/Producto Final/COMECA - MCU Board/Project Outputs for COMECA - MCU Board/BOM - JLC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Desktop\EasyMx Pro - COMECA\COMECA - MCU Board\Project Outputs for COMECA - MCU Board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Documents\GitHub\DisenioBJAM\Producto Final\COMECA - MCU Board\Project Outputs for COMECA - MCU Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524E28A7-D7D2-4D09-8DB7-DC82FE6851CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A043FBCD-CB6E-4A04-973D-B782DE236CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
   <si>
     <t>Comment</t>
   </si>
@@ -48,52 +48,79 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9</t>
+    <t/>
+  </si>
+  <si>
+    <t>C1, C2, C3, C4, C5, C6, C7, C13, C14</t>
+  </si>
+  <si>
+    <t>0402-CAP-TDK</t>
+  </si>
+  <si>
+    <t>CAP-SMD</t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>C10, C11</t>
   </si>
   <si>
     <t>0603-CAP-TDK</t>
   </si>
   <si>
-    <t>CAP-SMD</t>
-  </si>
-  <si>
-    <t>22pF</t>
-  </si>
-  <si>
     <t>2.2uF</t>
   </si>
   <si>
-    <t>C14, C15, C16</t>
-  </si>
-  <si>
-    <t>10uF/16V</t>
-  </si>
-  <si>
-    <t>E1, E2, E3, E4</t>
-  </si>
-  <si>
-    <t>1206-CAP-TDK</t>
+    <t>C12, C15, C16</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>CE1, CE2, CE3, CE4</t>
+  </si>
+  <si>
+    <t>0805-CAP-TDK</t>
+  </si>
+  <si>
+    <t>120R@100MHz</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>0603-IND-MURATA</t>
+  </si>
+  <si>
+    <t>BLM18BD121SN1D</t>
   </si>
   <si>
     <t>100K</t>
   </si>
   <si>
-    <t>R1, R2</t>
-  </si>
-  <si>
-    <t>0603-RES-PANASONIC</t>
+    <t>R1, R11</t>
+  </si>
+  <si>
+    <t>0402-RES-PANASONIC</t>
   </si>
   <si>
     <t>RES-SMD</t>
   </si>
   <si>
+    <t>12K1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
     <t>1K5</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
-    <t>27R</t>
+    <t>27</t>
   </si>
   <si>
     <t>R4, R5, R6, R7, R8, R9</t>
@@ -105,12 +132,6 @@
     <t>R10</t>
   </si>
   <si>
-    <t>12K1</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
     <t>STM32F407VGT6</t>
   </si>
   <si>
@@ -129,7 +150,16 @@
     <t>MC 24-QFN-PUNCH</t>
   </si>
   <si>
-    <t>C10, C11</t>
+    <t>ABLS-LR-25.000MHZ-F-T</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>HC49S</t>
+  </si>
+  <si>
+    <t>25.000MHz Crystal</t>
   </si>
   <si>
     <t>C307331</t>
@@ -144,9 +174,15 @@
     <t>C440198</t>
   </si>
   <si>
+    <t>C17851</t>
+  </si>
+  <si>
     <t>C25741</t>
   </si>
   <si>
+    <t>C416469</t>
+  </si>
+  <si>
     <t>C25867</t>
   </si>
   <si>
@@ -156,13 +192,13 @@
     <t>C25744</t>
   </si>
   <si>
-    <t>C416469</t>
-  </si>
-  <si>
     <t>C28730</t>
   </si>
   <si>
     <t>C17146</t>
+  </si>
+  <si>
+    <t>C1986891</t>
   </si>
 </sst>
 </file>
@@ -504,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,16 +581,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3">
         <v>9</v>
@@ -562,19 +598,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
@@ -582,19 +618,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3">
         <v>3</v>
@@ -602,19 +638,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
@@ -622,79 +658,79 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F8" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -702,39 +738,39 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -742,21 +778,61 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="3">
         <v>1</v>
       </c>
     </row>
